--- a/biology/Médecine/Jean-Claude_Dalbos/Jean-Claude_Dalbos.xlsx
+++ b/biology/Médecine/Jean-Claude_Dalbos/Jean-Claude_Dalbos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-Claude Dalbos, né le 24 septembre 1928 à Bordeaux et mort le 17 février 2022 au Bouscat[1], est un homme politique français.
+Jean-Claude Dalbos, né le 24 septembre 1928 à Bordeaux et mort le 17 février 2022 au Bouscat, est un homme politique français.
 Fils de Laurent et Anne-Marie Dalbos née ROBINSON , il est le second enfant d'une fratrie de 6. Marié à Marie-José Dauguet en 1968, ils auront une fille, Barbara Dalbos, en 1971.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Dalbos est docteur en médecine - dentiste (1956). Il fut élu député du département de Gironde à deux reprises sous Charles de Gaulle. Premièrement du 09/12/1958 au 04/10/1962, puis du 14/04/1986 au 14/05/1988, remplaçant un député décédé.
 Alors maire de Pessac, il devint le plus jeune député-maire de France en 1958, et fut l'un des principaux personnages du film La Rosière de Pessac de Jean Eustache, réalisé en 1968.
@@ -545,7 +559,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De 1959 à 1977 : maire de Pessac
 De 1983 à 1989 : maire de Pessac
@@ -578,9 +594,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2005)[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2005).</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean-Claude Dalbos, Le Problème de l'hygiène bucco-dentaire sur le plan médical, Bordeaux, imprimerie de Samie, 1956, 70 p. (BNF 31988839)</t>
         </is>
